--- a/biology/Botanique/Rosa_stellata/Rosa_stellata.xlsx
+++ b/biology/Botanique/Rosa_stellata/Rosa_stellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa stellata, connu aussi comme le Rosier du désert ou Rosier de Sacramento, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier nain, classé dans le sous-genre Hesperhodos,  originaire du sud-ouest des États-Unis (Arizona, Texas, Nouveau-Mexique).
 L'épithète spécifique, stellata, fait référence aux poils étoilés qui ornent les jeunes tiges.
@@ -521,7 +533,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau bas, épineux, aux aiguillons blanc jaunâtre, un rosier nain aux tiges grisâtres à aiguillons blanchâtres et aux jeunes tiges couvertes de poils étoilés.
 Les feuilles sont trifoliolées (rarement cinq folioles) et évoquent celles du fraisier ou du groseillier.
@@ -554,10 +568,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété mirifica est cultivée comme « rosier botanique » adapté aux situations sèches et ensoleillées.
-Elle est plus haute et plus vigoureuse que le type botanique, les tiges ne portent pas de poils et les feuilles sont à 5 folioles. Les fleurs sont semblables[1].
+Elle est plus haute et plus vigoureuse que le type botanique, les tiges ne portent pas de poils et les feuilles sont à 5 folioles. Les fleurs sont semblables.
 </t>
         </is>
       </c>
